--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinicius\Documents\GitHub\07-ERVP-TwMM4SLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713A397-B4C0-4669-8168-7EFFA7DE07D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26DCBEB-75E3-4A8F-9833-7C1FC8DDB831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Practices_raw" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Studies references" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Key-practices-Final'!$A$1:$E$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'KeyPractices-Selection'!$B$1:$F$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Specific_Goals (SG)'!$A$1:$D$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Thematic_analysis!$A$1:$G$72</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="547">
   <si>
     <t>ID</t>
   </si>
@@ -1524,9 +1525,6 @@
   </si>
   <si>
     <t>Manually scan the selected venues to check based on title, abstract, and full paper or combination of them</t>
-  </si>
-  <si>
-    <t>Paper selection</t>
   </si>
   <si>
     <t>Technical Support (TS)</t>
@@ -2104,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2208,14 +2206,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2230,9 +2220,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,15 +2238,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2291,8 +2269,27 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3731,7 +3728,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="49.5546875" style="42" customWidth="1"/>
+    <col min="2" max="3" width="49.5546875" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4945,8 +4942,8 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" customWidth="1"/>
     <col min="4" max="7" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6624,11 +6621,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="81.109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" customWidth="1"/>
     <col min="3" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6647,10 +6644,10 @@
       <c r="E1" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="56" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6658,7 +6655,7 @@
       <c r="A2" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>241</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -6670,10 +6667,10 @@
       <c r="E2" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6681,7 +6678,7 @@
       <c r="A3" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -6693,10 +6690,10 @@
       <c r="E3" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6704,7 +6701,7 @@
       <c r="A4" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="39" t="s">
         <v>173</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -6716,10 +6713,10 @@
       <c r="E4" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6727,7 +6724,7 @@
       <c r="A5" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="39" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -6739,10 +6736,10 @@
       <c r="E5" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6750,7 +6747,7 @@
       <c r="A6" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -6762,10 +6759,10 @@
       <c r="E6" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6773,7 +6770,7 @@
       <c r="A7" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -6785,10 +6782,10 @@
       <c r="E7" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6796,7 +6793,7 @@
       <c r="A8" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -6808,10 +6805,10 @@
       <c r="E8" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6819,7 +6816,7 @@
       <c r="A9" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -6831,10 +6828,10 @@
       <c r="E9" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6842,7 +6839,7 @@
       <c r="A10" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>260</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -6854,10 +6851,10 @@
       <c r="E10" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6865,7 +6862,7 @@
       <c r="A11" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -6877,10 +6874,10 @@
       <c r="E11" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6888,7 +6885,7 @@
       <c r="A12" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -6900,10 +6897,10 @@
       <c r="E12" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6911,7 +6908,7 @@
       <c r="A13" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -6923,10 +6920,10 @@
       <c r="E13" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6934,7 +6931,7 @@
       <c r="A14" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6946,10 +6943,10 @@
       <c r="E14" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6957,7 +6954,7 @@
       <c r="A15" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -6969,10 +6966,10 @@
       <c r="E15" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6980,7 +6977,7 @@
       <c r="A16" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -6992,10 +6989,10 @@
       <c r="E16" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7003,7 +7000,7 @@
       <c r="A17" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -7015,10 +7012,10 @@
       <c r="E17" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7026,7 +7023,7 @@
       <c r="A18" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="39" t="s">
         <v>262</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -7038,10 +7035,10 @@
       <c r="E18" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7049,7 +7046,7 @@
       <c r="A19" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -7061,10 +7058,10 @@
       <c r="E19" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7072,7 +7069,7 @@
       <c r="A20" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -7084,10 +7081,10 @@
       <c r="E20" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7095,7 +7092,7 @@
       <c r="A21" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="39" t="s">
         <v>264</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -7107,10 +7104,10 @@
       <c r="E21" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7118,7 +7115,7 @@
       <c r="A22" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="23" t="s">
@@ -7130,10 +7127,10 @@
       <c r="E22" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7141,7 +7138,7 @@
       <c r="A23" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -7153,10 +7150,10 @@
       <c r="E23" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7164,7 +7161,7 @@
       <c r="A24" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -7176,10 +7173,10 @@
       <c r="E24" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7187,7 +7184,7 @@
       <c r="A25" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="39" t="s">
         <v>266</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -7199,10 +7196,10 @@
       <c r="E25" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7210,7 +7207,7 @@
       <c r="A26" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="39" t="s">
         <v>267</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -7222,10 +7219,10 @@
       <c r="E26" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7233,7 +7230,7 @@
       <c r="A27" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -7245,10 +7242,10 @@
       <c r="E27" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7256,7 +7253,7 @@
       <c r="A28" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -7268,10 +7265,10 @@
       <c r="E28" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7279,7 +7276,7 @@
       <c r="A29" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -7291,10 +7288,10 @@
       <c r="E29" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7302,7 +7299,7 @@
       <c r="A30" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="39" t="s">
         <v>197</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -7314,10 +7311,10 @@
       <c r="E30" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7325,7 +7322,7 @@
       <c r="A31" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="39" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="23" t="s">
@@ -7337,10 +7334,10 @@
       <c r="E31" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7348,7 +7345,7 @@
       <c r="A32" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="39" t="s">
         <v>269</v>
       </c>
       <c r="C32" s="23" t="s">
@@ -7360,10 +7357,10 @@
       <c r="E32" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7371,7 +7368,7 @@
       <c r="A33" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -7383,10 +7380,10 @@
       <c r="E33" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7394,7 +7391,7 @@
       <c r="A34" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -7406,10 +7403,10 @@
       <c r="E34" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7417,7 +7414,7 @@
       <c r="A35" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="39" t="s">
         <v>271</v>
       </c>
       <c r="C35" s="23" t="s">
@@ -7429,10 +7426,10 @@
       <c r="E35" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7440,7 +7437,7 @@
       <c r="A36" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="39" t="s">
         <v>136</v>
       </c>
       <c r="C36" s="23" t="s">
@@ -7452,10 +7449,10 @@
       <c r="E36" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G36" s="65" t="s">
+      <c r="G36" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7463,7 +7460,7 @@
       <c r="A37" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -7475,10 +7472,10 @@
       <c r="E37" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="65" t="s">
+      <c r="G37" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7486,7 +7483,7 @@
       <c r="A38" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="39" t="s">
         <v>140</v>
       </c>
       <c r="C38" s="23" t="s">
@@ -7498,10 +7495,10 @@
       <c r="E38" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7509,7 +7506,7 @@
       <c r="A39" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="39" t="s">
         <v>143</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -7521,10 +7518,10 @@
       <c r="E39" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7532,7 +7529,7 @@
       <c r="A40" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="39" t="s">
         <v>146</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -7544,10 +7541,10 @@
       <c r="E40" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7555,7 +7552,7 @@
       <c r="A41" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="39" t="s">
         <v>149</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -7567,10 +7564,10 @@
       <c r="E41" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="G41" s="65" t="s">
+      <c r="G41" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7578,7 +7575,7 @@
       <c r="A42" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="39" t="s">
         <v>342</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -7590,10 +7587,10 @@
       <c r="E42" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7601,7 +7598,7 @@
       <c r="A43" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -7613,10 +7610,10 @@
       <c r="E43" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G43" s="65" t="s">
+      <c r="G43" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7624,7 +7621,7 @@
       <c r="A44" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="23" t="s">
@@ -7636,10 +7633,10 @@
       <c r="E44" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="65" t="s">
+      <c r="G44" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7647,7 +7644,7 @@
       <c r="A45" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="23" t="s">
@@ -7659,10 +7656,10 @@
       <c r="E45" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F45" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G45" s="65" t="s">
+      <c r="G45" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7670,7 +7667,7 @@
       <c r="A46" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -7682,10 +7679,10 @@
       <c r="E46" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F46" s="63" t="s">
+      <c r="F46" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G46" s="65" t="s">
+      <c r="G46" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7693,7 +7690,7 @@
       <c r="A47" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -7705,10 +7702,10 @@
       <c r="E47" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G47" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7716,7 +7713,7 @@
       <c r="A48" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="39" t="s">
         <v>349</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -7728,10 +7725,10 @@
       <c r="E48" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G48" s="65" t="s">
+      <c r="G48" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7739,7 +7736,7 @@
       <c r="A49" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="39" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="23" t="s">
@@ -7751,10 +7748,10 @@
       <c r="E49" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7762,7 +7759,7 @@
       <c r="A50" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C50" s="23" t="s">
@@ -7774,10 +7771,10 @@
       <c r="E50" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F50" s="63" t="s">
+      <c r="F50" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G50" s="65" t="s">
+      <c r="G50" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7785,7 +7782,7 @@
       <c r="A51" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -7797,10 +7794,10 @@
       <c r="E51" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F51" s="63" t="s">
+      <c r="F51" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G51" s="65" t="s">
+      <c r="G51" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7808,7 +7805,7 @@
       <c r="A52" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="39" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="23" t="s">
@@ -7820,10 +7817,10 @@
       <c r="E52" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F52" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G52" s="65" t="s">
+      <c r="G52" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7831,7 +7828,7 @@
       <c r="A53" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C53" s="23" t="s">
@@ -7843,10 +7840,10 @@
       <c r="E53" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F53" s="62" t="s">
+      <c r="F53" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G53" s="65" t="s">
+      <c r="G53" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7854,7 +7851,7 @@
       <c r="A54" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="39" t="s">
         <v>179</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -7866,10 +7863,10 @@
       <c r="E54" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="G54" s="65" t="s">
+      <c r="G54" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7877,7 +7874,7 @@
       <c r="A55" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C55" s="25" t="s">
@@ -7889,10 +7886,10 @@
       <c r="E55" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F55" s="62" t="s">
+      <c r="F55" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G55" s="65" t="s">
+      <c r="G55" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7900,7 +7897,7 @@
       <c r="A56" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="39" t="s">
         <v>203</v>
       </c>
       <c r="C56" s="23" t="s">
@@ -7912,10 +7909,10 @@
       <c r="E56" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G56" s="65" t="s">
+      <c r="G56" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7923,7 +7920,7 @@
       <c r="A57" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="39" t="s">
         <v>206</v>
       </c>
       <c r="C57" s="23" t="s">
@@ -7935,10 +7932,10 @@
       <c r="E57" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F57" s="62" t="s">
+      <c r="F57" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="65" t="s">
+      <c r="G57" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7946,7 +7943,7 @@
       <c r="A58" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="39" t="s">
         <v>211</v>
       </c>
       <c r="C58" s="23" t="s">
@@ -7958,10 +7955,10 @@
       <c r="E58" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G58" s="65" t="s">
+      <c r="G58" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7969,7 +7966,7 @@
       <c r="A59" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="39" t="s">
         <v>214</v>
       </c>
       <c r="C59" s="23" t="s">
@@ -7981,10 +7978,10 @@
       <c r="E59" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F59" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G59" s="65" t="s">
+      <c r="G59" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7992,7 +7989,7 @@
       <c r="A60" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="39" t="s">
         <v>216</v>
       </c>
       <c r="C60" s="25" t="s">
@@ -8004,10 +8001,10 @@
       <c r="E60" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G60" s="65" t="s">
+      <c r="G60" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8015,7 +8012,7 @@
       <c r="A61" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="39" t="s">
         <v>218</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -8027,10 +8024,10 @@
       <c r="E61" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="F61" s="62" t="s">
+      <c r="F61" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="G61" s="65" t="s">
+      <c r="G61" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8038,7 +8035,7 @@
       <c r="A62" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="39" t="s">
         <v>220</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -8050,10 +8047,10 @@
       <c r="E62" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G62" s="65" t="s">
+      <c r="G62" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8061,7 +8058,7 @@
       <c r="A63" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C63" s="25" t="s">
@@ -8073,10 +8070,10 @@
       <c r="E63" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="F63" s="62" t="s">
+      <c r="F63" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G63" s="65" t="s">
+      <c r="G63" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8084,7 +8081,7 @@
       <c r="A64" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="39" t="s">
         <v>228</v>
       </c>
       <c r="C64" s="23" t="s">
@@ -8096,10 +8093,10 @@
       <c r="E64" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F64" s="62" t="s">
+      <c r="F64" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G64" s="65" t="s">
+      <c r="G64" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8107,7 +8104,7 @@
       <c r="A65" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="39" t="s">
         <v>230</v>
       </c>
       <c r="C65" s="25" t="s">
@@ -8119,10 +8116,10 @@
       <c r="E65" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F65" s="62" t="s">
+      <c r="F65" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G65" s="65" t="s">
+      <c r="G65" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8130,7 +8127,7 @@
       <c r="A66" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="39" t="s">
         <v>277</v>
       </c>
       <c r="C66" s="23" t="s">
@@ -8142,10 +8139,10 @@
       <c r="E66" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F66" s="62" t="s">
+      <c r="F66" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G66" s="65" t="s">
+      <c r="G66" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8153,7 +8150,7 @@
       <c r="A67" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="39" t="s">
         <v>234</v>
       </c>
       <c r="C67" s="25" t="s">
@@ -8165,10 +8162,10 @@
       <c r="E67" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F67" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G67" s="65" t="s">
+      <c r="G67" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8176,7 +8173,7 @@
       <c r="A68" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="39" t="s">
         <v>236</v>
       </c>
       <c r="C68" s="23" t="s">
@@ -8188,10 +8185,10 @@
       <c r="E68" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F68" s="62" t="s">
+      <c r="F68" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G68" s="65" t="s">
+      <c r="G68" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8199,7 +8196,7 @@
       <c r="A69" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="39" t="s">
         <v>279</v>
       </c>
       <c r="C69" s="24" t="s">
@@ -8211,10 +8208,10 @@
       <c r="E69" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="62" t="s">
+      <c r="F69" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="G69" s="65" t="s">
+      <c r="G69" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8222,7 +8219,7 @@
       <c r="A70" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="39" t="s">
         <v>280</v>
       </c>
       <c r="C70" s="26" t="s">
@@ -8234,10 +8231,10 @@
       <c r="E70" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F70" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G70" s="65" t="s">
+      <c r="G70" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8245,7 +8242,7 @@
       <c r="A71" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="39" t="s">
         <v>282</v>
       </c>
       <c r="C71" s="25" t="s">
@@ -8257,10 +8254,10 @@
       <c r="E71" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F71" s="62" t="s">
+      <c r="F71" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G71" s="65" t="s">
+      <c r="G71" s="57" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8280,10 +8277,10 @@
       <c r="E72" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="F72" s="63" t="s">
+      <c r="F72" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G72" s="57" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8297,648 +8294,649 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF3F2D2-6D19-4258-B772-98682F98DD79}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.44140625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="26" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.44140625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="26" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="58" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" s="50" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="46" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="46" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="48" t="s">
         <v>491</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
+      <c r="B15" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="60"/>
+      <c r="B16" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
+      <c r="B17" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="D17" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="60"/>
+      <c r="B19" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="51" t="s">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="60"/>
+      <c r="B21" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="60"/>
+      <c r="B22" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="51" t="s">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="60"/>
+      <c r="B23" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="E9" s="51" t="s">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="60"/>
+      <c r="B24" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="50" t="s">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="60"/>
+      <c r="B26" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="60"/>
+      <c r="B27" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="51" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="60"/>
+      <c r="B28" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="60"/>
+      <c r="B29" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="60"/>
+      <c r="B30" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="60"/>
+      <c r="B31" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="60"/>
+      <c r="B32" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D32" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>500</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="51" t="s">
+      <c r="E32" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="60"/>
+      <c r="B33" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="60"/>
+      <c r="B34" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>502</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>528</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="E34" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="60"/>
+      <c r="B35" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="60"/>
+      <c r="B36" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="D36" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>509</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="D24" s="51" t="s">
+      <c r="E36" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" s="50" t="s">
+      <c r="E37" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="60"/>
+      <c r="B38" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="60"/>
+      <c r="B39" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="60"/>
+      <c r="B40" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>514</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>515</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="52" t="s">
-        <v>338</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="53" t="s">
-        <v>363</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="C40" s="50" t="s">
+      <c r="E40" s="46" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="55" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E41" xr:uid="{ADF3F2D2-6D19-4258-B772-98682F98DD79}"/>
   <mergeCells count="6">
+    <mergeCell ref="A41:E41"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A36"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8952,147 +8950,147 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>530</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>531</v>
       </c>
-      <c r="D2" s="68" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="67" t="s">
+      <c r="C3" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>532</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="68"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="C4" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="D4" s="58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="67" t="s">
+      <c r="C5" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="D5" s="64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>536</v>
       </c>
-      <c r="D5" s="68" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" s="67" t="s">
+      <c r="C6" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="D6" s="68"/>
-    </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="67" t="s">
+      <c r="C7" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="D7" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="D7" s="68" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="67" t="s">
+      <c r="C8" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="59" t="s">
         <v>543</v>
       </c>
-      <c r="D8" s="68"/>
-    </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="67" t="s">
+      <c r="C9" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="59" t="s">
         <v>545</v>
       </c>
-      <c r="D9" s="68"/>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="67" t="s">
+      <c r="C10" s="58" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="66" t="s">
-        <v>547</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>521</v>
+      <c r="D10" s="58" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -9114,7 +9112,7 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9125,10 +9123,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -9323,10 +9321,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="67" t="s">
         <v>402</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="66"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
